--- a/datastatic/datasets/online/SDG16_Anti_Money_Laundering_Index_Basel_Inst.xlsx
+++ b/datastatic/datasets/online/SDG16_Anti_Money_Laundering_Index_Basel_Inst.xlsx
@@ -668,7 +668,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG16_Anti_Money_Laundering_Index_Basel_Inst.xlsx
+++ b/datastatic/datasets/online/SDG16_Anti_Money_Laundering_Index_Basel_Inst.xlsx
@@ -668,7 +668,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
